--- a/vocabulary/SampleTypeCompilation.xlsx
+++ b/vocabulary/SampleTypeCompilation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\iSamples\metadata\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC426616-54BD-4174-894D-01CF723FFB90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A2CB0-EBF7-4707-8682-0B4AFF4AFA99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="945" windowWidth="27945" windowHeight="13275" activeTab="3" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
+    <workbookView xWindow="2385" yWindow="1950" windowWidth="20700" windowHeight="13275" activeTab="2" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleTypes" sheetId="1" r:id="rId1"/>
     <sheet name="OtherTypes" sheetId="2" r:id="rId2"/>
     <sheet name="Synthesis" sheetId="3" r:id="rId3"/>
-    <sheet name="Level 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Synth Level 1" sheetId="5" r:id="rId4"/>
+    <sheet name="Level 1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="668">
   <si>
     <t>Identical split(s) of an original sample submitted blindly to the laboratory to test reproducibility (bias) of results.  Should be related to a previous original specimen.</t>
   </si>
@@ -402,9 +403,6 @@
     <t>downhole reservoir fluid sample</t>
   </si>
   <si>
-    <t>A coarse crushed sample.</t>
-  </si>
-  <si>
     <t>crush</t>
   </si>
   <si>
@@ -760,9 +758,6 @@
   </si>
   <si>
     <t>could be other than Mineral (glass, organic… ?)</t>
-  </si>
-  <si>
-    <t>doesn't specify what was crushed, could be biogenic</t>
   </si>
   <si>
     <t>Micro Spot</t>
@@ -2007,9 +2002,6 @@
     <t>Sample is a thing that was made by humans</t>
   </si>
   <si>
-    <t>sample is a gas; infer that the sample is curated in some kind of container</t>
-  </si>
-  <si>
     <t>sample is a fluid material; infer that the sample is curated in some kind of container</t>
   </si>
   <si>
@@ -2061,9 +2053,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Biological Material</t>
-  </si>
-  <si>
     <t>Artifact</t>
   </si>
   <si>
@@ -2073,9 +2062,6 @@
     <t>Gas</t>
   </si>
   <si>
-    <t>Other Fluid</t>
-  </si>
-  <si>
     <t>Anthropogenic material</t>
   </si>
   <si>
@@ -2100,36 +2086,12 @@
     <t>organism part</t>
   </si>
   <si>
-    <t>body, body part, fecal matter, seeds, wood</t>
-  </si>
-  <si>
-    <t>mixed mineral and organic matter modified by interaction between earth material, biosphere, and atmosphere</t>
-  </si>
-  <si>
-    <t>granular material transported by wind, water, or gravity, not modified by interaction with biosphere or atmosphere</t>
-  </si>
-  <si>
     <t>container with fluid</t>
   </si>
   <si>
     <t>Piece of solid material</t>
   </si>
   <si>
-    <t>fluid inclusions in rock</t>
-  </si>
-  <si>
-    <t>ceramics, concrete, slag</t>
-  </si>
-  <si>
-    <t>non-aquerous liquids, e.g. petroleum, alcohol</t>
-  </si>
-  <si>
-    <t>specimen representative of a single mineral species</t>
-  </si>
-  <si>
-    <t>Natural consolidated material consisting of mineral particles or glass. Includes natural glasses, meteorites</t>
-  </si>
-  <si>
     <t>an object made by a human being, typically an item of cultural or historical interest. (Definition from Oxford Languages). Include a set of pieces belonging originally to a single object and treated as a single specimen.</t>
   </si>
   <si>
@@ -2148,9 +2110,6 @@
     <t>specimen is microscopic organism</t>
   </si>
   <si>
-    <t>Sample is of a microscopic particulate material derived by precipitation, filtering, or settling from suspension in a fluid.  particulates, e.g. filtrate from water, deposition from atmosphere, astro material particles. Might include mineral, organic, or biological material.</t>
-  </si>
-  <si>
     <t>Sample consists of a bunch of material fragments, not related to the same object (e.g. not a bunch of broken pot sherds that might be reassembled), but taken together representative of the sampled feature. soil, sediment, crushed rock, particulate, sample requires some kind of container.</t>
   </si>
   <si>
@@ -2167,13 +2126,104 @@
   </si>
   <si>
     <t>tbd</t>
+  </si>
+  <si>
+    <t>EarthMaterial specimen</t>
+  </si>
+  <si>
+    <t>Solid Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A coarse crushed sample. </t>
+  </si>
+  <si>
+    <t>doesn't specify what was crushed, could be biogenic?</t>
+  </si>
+  <si>
+    <t>Solid material</t>
+  </si>
+  <si>
+    <t>Ocean, sea, or lake bottom</t>
+  </si>
+  <si>
+    <t>Borehole is in solid earth, ?? including ice?</t>
+  </si>
+  <si>
+    <t>Rock sample</t>
+  </si>
+  <si>
+    <t>Environmental material derived from living organisms and composed primarily of one or more very large molecules of biological origin. Examples: body (animal or plant), body part, fecal matter, seeds, wood, tissue, biological fluids, biological waste, algal material, biofilm, necromass, plankton).  http://purl.obolibrary.org/obo/ENVO_01000155</t>
+  </si>
+  <si>
+    <t>Organic Material</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_2000045 (no definition in ENVO). Examples: kerogen, natural gas, biogas, methane ice, petroleum, gasoline, fuel oil, asphalt)</t>
+  </si>
+  <si>
+    <t>Material consists of microscopic particulate material derived by precipitation, filtering, or settling from suspension in a fluid.  particulates, e.g. filtrate from water, deposition from atmosphere, astro material particles. Might include mineral, organic, or biological material. ENVO definition (ENVO_01000060) has "composed of microscopic portions of solid or liquid material suspended in another environmental material.", refine here to define as the solid particles, distinct from a material in which they are suspended. A material that includes solid or liquid particles suspended in another material would be a dispersed_media in this scheme, not defined in ENVO.</t>
+  </si>
+  <si>
+    <t>dispersed media</t>
+  </si>
+  <si>
+    <t>A material that consists of two media that do not mix. More specifically, it contains discrete elements of one medium which are dispersed in a continuous second medium. The two media can be of very different nature. In particular, they can be a gas, a liquid or a solid. (https://en.wikipedia.org/wiki/Dispersed_media). Examples: aerosol ENVO_00010505, foam ENVO_00005738, emulsion ENVO_00010506, colloidal suspension ENVO_01001560, scum(?)ENVO:00003930, permafrost? clathrate?</t>
+  </si>
+  <si>
+    <t>"A mineral is an element or chemical compound that is normally crystalline and that has been formed as a result of geological processes." (Nickel, Ernest H. (1995), The definition of a mineral,  The Canadian Mineralogist. 33 (3): 689–90). Include mineraloids. ... A  material  primarily composed of some substance that is naturally occurring, solid and stable at room temperature, representable by a chemical formula, usually abiogenic, and that has an ordered atomic structure. (http://purl.obolibrary.org/obo/ENVO_01000256).   Comment: the identity of a mineral species is defined by a crystal structure and a chemical composition that might include various specific elemental substitutions in that structure.  Mineraloid:  A naturally occurring mineral-like substance that does not demonstrate crystallinity. Mineraloids possess chemical compositions that vary beyond the generally accepted ranges for specific minerals. Examples: obsidian, Opal. (https://en.wikipedia.org/wiki/Mineraloid)</t>
+  </si>
+  <si>
+    <r>
+      <t>fluid inclusions in rock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (classify in multiple categories)</t>
+    </r>
+  </si>
+  <si>
+    <t>Other liquid</t>
+  </si>
+  <si>
+    <t>liquids that do not fit other category. E.g. alcohol  [?this is an edge case, do we need it?]</t>
+  </si>
+  <si>
+    <t>mixed mineral and organic matter modified by interaction between earth material, biosphere, and atmosphere.  Soil is an environmental material which is primarily composed of minerals, varying proportions of sand, silt, and clay, organic material such as humus, gases, liquids, and a broad range of resident micro- and macroorganisms. (https://en.wikipedia.org/wiki/Soil)
+Soil consists of horizons near the Earth's surface that, in contrast to the underlying parent material, have been altered by the interactions of climate, relief, and living organisms over time. (http://www.nrcs.usda.gov/wps/portal/nrcs/detail/soils/edu/?cid=nrcs142p2_054280) (http://purl.obolibrary.org/obo/ENVO_00001998)</t>
+  </si>
+  <si>
+    <t>Solid granular material transported by wind, water, or gravity, not modified by interaction with biosphere or atmosphere (to differentiate from soil).  Particles derived by erosion of pre-existing rock, from shell or other body parts from organisms, or precipitated chemically in the surficial environment (http://resource.geosciml.org/classifier/cgi/lithology/sediment). Sediment is not consolidated, i.e. Particulate constituents of a compound material do not adhere to each other strongly enough that the aggregate can be considered a solid material in its own right.(http://resource.geosciml.org/classifier/cgi/consolidationdegree/consolidated).  Similar to http://purl.obolibrary.org/obo/ENVO_00002007</t>
+  </si>
+  <si>
+    <t>Material composed of one or more chemical entities that has neither independent shape nor volume but tends to expand indefinitely (http://purl.obolibrary.org/obo/ENVO_01000797). Infer that the sample is curated in some kind of container</t>
+  </si>
+  <si>
+    <t>Consolidated aggregate of particles (grains) of rock, mineral (including native elements), mineraloid, or solid organic material. Includes mineral aggregates such as granite, shale, marble; natural glass such as obsidian;  organic material formed by geologic processes such a coal; and extraterrestrial material in meteorites. (based on http://resource.geosciml.org/classifier/cgi/lithology/rock, same as http://purl.obolibrary.org/obo/ENVO_00001995)</t>
+  </si>
+  <si>
+    <t>anthropogenic metal</t>
+  </si>
+  <si>
+    <t>hydrocarbon material</t>
+  </si>
+  <si>
+    <t>Material produced by human activity.  Organic products of agricultural activity are both anthropogenic and organic.  Examples: ceramics, concrete, slag, (anthropogenic) glass, mine tailing, plaster, waste.  (http://purl.obolibrary.org/obo/ENVO_0010001)</t>
+  </si>
+  <si>
+    <t>Metallic material that has been produced or used by humans; subclass of anthropogenic material.  Samples of naturally occuring metallic material (e.g. native copper, gold nuggets) should be considered mineral material.  Metallic material is material that when polished or fractured, shows a lustrous appearance, and conducts electricity and heat relatively well. Metals are typically malleable (they can be hammered into thin sheets) or ductile (can be drawn into wires).  The boundaries between metals, nonmetals, and metalloids fluctuate slightly due to a lack of universally accepted definitions of the categories involved.  (https://en.wikipedia.org/wiki/Metal). c.f. http://purl.obolibrary.org/obo/ENVO_01001069</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2248,6 +2298,14 @@
       <color rgb="FF70757A"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2304,7 +2362,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2348,6 +2406,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2670,17 +2734,17 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="39" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.140625" style="2" customWidth="1"/>
@@ -2691,40 +2755,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>580</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2735,25 +2799,25 @@
         <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>581</v>
+        <v>642</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L2" s="2"/>
     </row>
@@ -2765,24 +2829,26 @@
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>643</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -2791,62 +2857,64 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>644</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>646</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>241</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2854,80 +2922,82 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -2939,26 +3009,26 @@
         <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -2970,10 +3040,10 @@
         <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2" t="s">
@@ -2981,13 +3051,13 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -2999,10 +3069,10 @@
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>57</v>
@@ -3015,7 +3085,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>57</v>
@@ -3024,35 +3094,35 @@
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -3064,10 +3134,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>57</v>
@@ -3078,7 +3148,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>57</v>
@@ -3087,70 +3157,70 @@
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3161,120 +3231,120 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -3286,25 +3356,25 @@
         <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -3316,28 +3386,28 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3348,23 +3418,23 @@
         <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="2"/>
       <c r="G22" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L22" s="2"/>
     </row>
@@ -3376,10 +3446,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>28</v>
@@ -3389,40 +3459,40 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L24" s="2"/>
     </row>
@@ -3434,25 +3504,25 @@
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L25" s="2"/>
     </row>
@@ -3464,10 +3534,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3476,1808 +3546,1808 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>G27 &amp; " " &amp; C27</f>
         <v>Antler artifact</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>G33 &amp; " " &amp; C33</f>
         <v>Bone artifact</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E57" s="2"/>
       <c r="G57" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D60" s="2" t="str">
         <f>G60 &amp; " " &amp; C60</f>
         <v>Horn artifact</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D61" s="2" t="str">
         <f>G61 &amp; " " &amp; C61</f>
         <v>Ivory artifact</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D69" s="2" t="str">
         <f>G69 &amp; " " &amp; C69</f>
         <v>Plaster artifact</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D70" s="2" t="str">
         <f>G70 &amp; " " &amp; C70</f>
         <v>Shell artifact</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J94" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K94" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="L94" s="2"/>
     </row>
@@ -5289,69 +5359,69 @@
         <v>17</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L97" s="2"/>
     </row>
@@ -5363,25 +5433,25 @@
         <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J98" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L98" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="48" x14ac:dyDescent="0.25">
@@ -5389,28 +5459,28 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J99" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L99" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="L99" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5421,7 +5491,7 @@
         <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>102</v>
@@ -5432,13 +5502,13 @@
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L100" s="2"/>
     </row>
@@ -5450,25 +5520,25 @@
         <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5479,7 +5549,7 @@
         <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>95</v>
@@ -5488,15 +5558,17 @@
       <c r="G102" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="2"/>
+      <c r="H102" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I102" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L102" s="2"/>
     </row>
@@ -5508,21 +5580,23 @@
         <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E103" s="2"/>
       <c r="G103" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H103" s="2"/>
+      <c r="H103" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I103" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L103" s="2"/>
     </row>
@@ -5534,19 +5608,21 @@
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H104" s="2"/>
+      <c r="H104" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I104" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L104" s="2"/>
     </row>
@@ -5558,23 +5634,25 @@
         <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H105" s="2"/>
+      <c r="H105" s="2" t="s">
+        <v>649</v>
+      </c>
       <c r="I105" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L105" s="2"/>
     </row>
@@ -5586,10 +5664,10 @@
         <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>118</v>
@@ -5599,10 +5677,10 @@
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L106" s="2"/>
     </row>
@@ -5611,27 +5689,27 @@
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J107" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -5642,10 +5720,10 @@
         <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E108" s="2"/>
       <c r="G108" s="2" t="s">
@@ -5653,72 +5731,72 @@
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -5729,84 +5807,84 @@
         <v>78</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L113" s="2"/>
     </row>
@@ -5818,13 +5896,13 @@
         <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>114</v>
@@ -5832,7 +5910,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="L114" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5843,26 +5921,26 @@
         <v>13</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L115" s="2"/>
     </row>
@@ -5874,10 +5952,10 @@
         <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E116" s="2"/>
       <c r="G116" s="2" t="s">
@@ -5885,10 +5963,10 @@
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L116" s="2"/>
     </row>
@@ -5900,10 +5978,10 @@
         <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E117" s="2"/>
       <c r="G117" s="2" t="s">
@@ -5911,10 +5989,10 @@
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L117" s="2"/>
     </row>
@@ -5926,10 +6004,10 @@
         <v>115</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>116</v>
@@ -5939,16 +6017,16 @@
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J118" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="K118" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5959,26 +6037,26 @@
         <v>31</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L119" s="2"/>
     </row>
@@ -5990,10 +6068,10 @@
         <v>29</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E120" s="2"/>
       <c r="G120" s="2" t="s">
@@ -6001,39 +6079,39 @@
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L121" s="2"/>
     </row>
@@ -6042,235 +6120,235 @@
         <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="H122" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I122" s="2"/>
       <c r="L122" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L124" s="2"/>
     </row>
     <row r="125" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L128" s="2"/>
     </row>
     <row r="129" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L129" s="2"/>
     </row>
@@ -6279,31 +6357,31 @@
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H130" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6311,63 +6389,63 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="H131" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J131" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L131" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L132" s="2"/>
     </row>
@@ -6376,61 +6454,61 @@
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="H133" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6438,56 +6516,56 @@
         <v>2</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L136" s="2"/>
     </row>
@@ -6499,23 +6577,23 @@
         <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L137" s="2"/>
     </row>
@@ -6527,10 +6605,10 @@
         <v>50</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E138" s="2"/>
       <c r="G138" s="2" t="s">
@@ -6538,10 +6616,10 @@
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L138" s="2"/>
     </row>
@@ -6553,10 +6631,10 @@
         <v>111</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E139" s="2"/>
       <c r="G139" s="2" t="s">
@@ -6564,38 +6642,38 @@
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L140" s="2"/>
     </row>
@@ -6607,10 +6685,10 @@
         <v>76</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E141" s="2"/>
       <c r="G141" s="2" t="s">
@@ -6618,13 +6696,13 @@
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6635,23 +6713,23 @@
         <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L142" s="2"/>
     </row>
@@ -6663,10 +6741,10 @@
         <v>46</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E143" s="2"/>
       <c r="G143" s="2" t="s">
@@ -6674,10 +6752,10 @@
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L143" s="2"/>
     </row>
@@ -6689,7 +6767,7 @@
         <v>40</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>41</v>
@@ -6698,10 +6776,10 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L144" s="2"/>
     </row>
@@ -6713,75 +6791,75 @@
         <v>42</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L145" s="2"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="G146" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L146" s="2"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
@@ -6792,48 +6870,48 @@
         <v>36</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L149" s="2"/>
     </row>
@@ -6842,26 +6920,26 @@
         <v>2</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="G150" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J150" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="L150" s="2"/>
     </row>
@@ -6873,10 +6951,10 @@
         <v>38</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>39</v>
@@ -6887,10 +6965,10 @@
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L151" s="2"/>
     </row>
@@ -6899,27 +6977,27 @@
         <v>2</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L152" s="2"/>
     </row>
@@ -6931,7 +7009,7 @@
         <v>107</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>108</v>
@@ -6943,13 +7021,13 @@
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -6960,7 +7038,7 @@
         <v>99</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>100</v>
@@ -6972,13 +7050,13 @@
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L154" s="2"/>
     </row>
@@ -6990,10 +7068,10 @@
         <v>84</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7001,63 +7079,63 @@
         <v>85</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L156" s="2"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -7065,44 +7143,44 @@
     </row>
     <row r="158" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L158" s="2"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -7110,58 +7188,58 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H160" s="2"/>
       <c r="I160" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L160" s="2"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L161" s="2"/>
     </row>
@@ -7173,26 +7251,26 @@
         <v>3</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L162" s="2"/>
     </row>
@@ -7204,26 +7282,26 @@
         <v>0</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L163" s="2"/>
     </row>
@@ -7235,7 +7313,7 @@
         <v>35</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>34</v>
@@ -7246,98 +7324,98 @@
       </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L164" s="2"/>
     </row>
     <row r="165" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="K165" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L165" s="2"/>
     </row>
     <row r="166" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L166" s="2"/>
     </row>
     <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="240" x14ac:dyDescent="0.25">
@@ -7348,24 +7426,24 @@
         <v>33</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H168" s="8"/>
       <c r="I168" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L168" s="2"/>
     </row>
@@ -7377,7 +7455,7 @@
         <v>19</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>20</v>
@@ -7388,110 +7466,110 @@
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L169" s="2"/>
     </row>
     <row r="170" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L170" s="2"/>
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L171" s="2"/>
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L172" s="2"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -7505,10 +7583,10 @@
         <v>11</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E174" s="2"/>
       <c r="G174" s="2" t="s">
@@ -7516,13 +7594,13 @@
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7533,26 +7611,26 @@
         <v>9</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L175" s="2"/>
     </row>
@@ -7564,10 +7642,10 @@
         <v>7</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E176" s="2"/>
       <c r="G176" s="2" t="s">
@@ -7575,67 +7653,67 @@
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L176" s="2"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L178" s="2"/>
     </row>
@@ -7647,7 +7725,7 @@
         <v>5</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7656,70 +7734,70 @@
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L179" s="2"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L180" s="2"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L181" s="2"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="L182" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -7753,34 +7831,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="210.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7788,10 +7866,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -7801,10 +7879,10 @@
         <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -7813,10 +7891,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -7826,22 +7904,22 @@
         <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -7851,10 +7929,10 @@
         <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -7863,10 +7941,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -7876,10 +7954,10 @@
         <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -7888,7 +7966,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -7899,10 +7977,10 @@
         <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -7911,7 +7989,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>63</v>
@@ -7924,10 +8002,10 @@
         <v>62</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -7936,10 +8014,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -7949,14 +8027,14 @@
         <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7964,7 +8042,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -7977,14 +8055,14 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -7996,8 +8074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7462EFFD-5DEC-48C8-895D-422909D578AE}">
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8015,187 +8093,187 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="14" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>602</v>
+        <v>662</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G7"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>638</v>
+      <c r="A10" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>657</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="2"/>
       <c r="G11"/>
       <c r="J11" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
@@ -8205,101 +8283,119 @@
       <c r="C13" s="13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>652</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="G14" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>655</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="G15" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J15" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>667</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="G16" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J16" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="13"/>
       <c r="G17" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J17" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
       <c r="H18" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="13"/>
       <c r="H19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="13"/>
       <c r="H20" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="13"/>
       <c r="G21" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H21" s="2"/>
       <c r="J21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="13"/>
       <c r="H22" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J22" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G23" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G24" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
@@ -8818,11 +8914,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD34EABA-4845-4B72-8F3B-BDE6AC79FEE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17C6C5E-04C9-46C3-A896-465D3416838E}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8835,7 +8945,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8846,7 +8956,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8856,27 +8966,27 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8884,24 +8994,24 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8912,139 +9022,139 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D38" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9056,7 +9166,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9070,91 +9180,91 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -9164,47 +9274,47 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -9214,7 +9324,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -9224,17 +9334,17 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">

--- a/vocabulary/SampleTypeCompilation.xlsx
+++ b/vocabulary/SampleTypeCompilation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\iSamples\metadata\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF14527E-D75D-41A5-B20D-77DC412D3BB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46590782-9A26-45C8-8619-6C7D75E9B329}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="60" windowWidth="16365" windowHeight="13605" firstSheet="2" activeTab="5" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
+    <workbookView xWindow="4680" yWindow="360" windowWidth="16455" windowHeight="13605" firstSheet="2" activeTab="5" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleTypes" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="921">
   <si>
     <t>Identical split(s) of an original sample submitted blindly to the laboratory to test reproducibility (bias) of results.  Should be related to a previous original specimen.</t>
   </si>
@@ -2565,15 +2565,9 @@
     <t>[ID: 140]   [Specimen Location: Copenhagen, Zoological Museum]   [Museum Number: 205/1941]   [Period: Mesolithic]   [Date cal BC: 8550-7750]   [Date C14: 9020±280 BP]   [Taxon: Bos sp.]   [Element: mandible]   [jaw/loose: jaw]   [M3 Length (widest part): 48.5]   [M3 Width (widest part): 20.2]   [Mandible height: 69.1]   [Comments: left M3 measurements from degerbol - mandible has been stuck together]</t>
   </si>
   <si>
-    <t xml:space="preserve">[Provenience (Recorded): SC 8-12]   [Level: 90-130]   [WT (0.01 gram increments): 2.96]   [Max Size (5mm increments, maximum surficial length): 40.0]   [Class: Mammalia]   [Size 1: Medium]   [Order: Carnivora]   [Size 2: Medium]   [Family: Canidae]   [Size 3: Small]   [Genus: Lycalopex]   [Element: Humerus,  Distal &amp; Shaft]   [Comments: much bigger specimen than preceding] </t>
-  </si>
-  <si>
     <t>Specimen Type: Dental]  [Period: Pottery Neolithic]  [Taxon: Sus sp. (pig)]  [Element: dP4]  [Side: Right]  [Wear: d]</t>
   </si>
   <si>
-    <t>[Sex:   Female]  [Class:   Aves]  [Order:   Galliformes]  [Family:   Phasianidae]  [Genus:   Coturnix]  [Species:   Coturnix]  [Subspecies:   japonica]  [Common Name:   Japanese quail]  [Continent/Ocean:   North America]  [Country:   USA]  [State/Province:   MA]  [Kind2:   Skull]  [Kind4:   Complete skeleton]  [Received from:   Concord Field Station]  [Bio. Remarks:   wing chord 110, bill 11; had 3 eggs; found dead in pen]  [Site Name:   Bird Farm]  [Location:   Berlin]  [Specimen Remarks:   Complete skeleton]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[Depth (cm):  Surface]  [Condition:  Complete]  [Material Class:  Groundstone]  [Object Type:  Donut stone]  [Rock Type:  Volcanic (slightly vesicular, dacitic)]  [Weight (g):  607.9]  [Maximum Object Diameter (cm):  10.1]  [Maximum Object Thickness (cm):  5.4]  [Minimum Perforation Diameter (cm):  2.0]  [Wear Distribution:  Use-wear inside hole, most intensively at narrowest point.]  [Wear Characteristics (up To 40x):  Leveling and sheen on high areas. Most complete leveling and intense sheen at narrowest point of perforation. Rounded interstice edges and high areas.]  [Comments:  Oblong shape. Natural "fingerholds" on edges. Biconical hole. Other id# 76BW-1-8-88] </t>
   </si>
   <si>
@@ -2718,9 +2712,6 @@
     <t>buckle</t>
   </si>
   <si>
-    <t>beads</t>
-  </si>
-  <si>
     <t>block</t>
   </si>
   <si>
@@ -2790,13 +2781,205 @@
     <t>fern tissue</t>
   </si>
   <si>
-    <t>[Loc. 16]  [Laetolil Beds, Upper Unit, top part of T8]  [leaf, dicot.] Upper Pliocene [Plantae]</t>
-  </si>
-  <si>
-    <t>[Laetoli Loc 8. ]  [between tuffs 5 &amp; 7]  [seed] Pliocene  [Plantae]</t>
-  </si>
-  <si>
-    <t>[Oleisusu]  [Laetolil Beds, ?Lower Unit]  [wood] Pliocene  [Plantae]</t>
+    <t>[Material: Rock]  [Field Name: outcrop/hand specimens]  [Description: shale with a concretion]  [Collection Method: Manual]  [Geological Unit: Marcellus, facies 4, F4]  [Comment: Drawer, Cabinet 7 #4]  [Country: United States]  [State/Province: WV]  [County: Whip Gap]</t>
+  </si>
+  <si>
+    <t>shale</t>
+  </si>
+  <si>
+    <t>ooid grainstone</t>
+  </si>
+  <si>
+    <t>[Sample Name: GRF-VC]  [Other Name(s): Stratigraphic section of the LaClede Bed of the Laney Member of the Green River Formation]  [Sample Type: Terrestrial Section]  [Material: Rock]  [Classification: Sedimentary&gt;Carbonate]  [Field Name: GRF-Vermillion Creek section]  [Geological Age: Eocene]  [Latitude (WGS84): 40.773457]  [Longitude (WGS84): -108.651583]  [Locality: Vermillion Creek]  [Country: United States]  [State/Province: Colorado]  [County: Moffat]  [Collector/Chief Scientist: Elizabeth Trower]  [Collector/Chief Scientist Detail: University of Colorado Boulder]  [Collection Start Date: 2018-06-05]  [Children: {IEEJT0051 VC-18-01, IEEJT0052 VC-18-02, IEEJT0053 VC-18-03, IEEJT0054 VC-18-04, IEEJT0055 VC-18-05}]</t>
+  </si>
+  <si>
+    <t>Stratigraphic section,  LaClede Bed, Green River Formation</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>[Sample Name: DAMA 39]  [Other Name(s): 1293]  [Sample Type: Individual Sample]  [Material: Synthetic]  [Field Name: Glass]   [Purpose: The provenance of plant ash glass in Middle East]  [Latitude (WGS84): 33.513807]  [Longitude (WGS84): 36.276528]  [Locality: Damascus]  [Country: Syria]</t>
+  </si>
+  <si>
+    <t>synthetic rock powder</t>
+  </si>
+  <si>
+    <t>[Sample Name: p4527Powder]  [Other Name(s): Min-U-Sil 40]  [Sample Type: Rock Powder]  [Material: Synthetic]</t>
+  </si>
+  <si>
+    <t>[Sample Name: Al220-5h]  [Sample Type: Experimental Specimen&gt;Other]  [Material: Synthetic]  [Field Name: Al220-5h]  [Description: Synthesized aluminum hydroxide; heated for five hours at 220 C]  [Comment: 50 mL of a 3.25 M NaOH solution were added to 30 mL of a 1.8 M Al(NO3)3 ·9H2O at a rate of 2.94 mL/min with a magnetic stirring bar for 17 minutes. The suspension was then mixed in an ultrasonic bath for 3 hours at 25˚ C, filtered, and then rinsed with nanopure water until fully desalinated. Precipitate was then heated for 5 hours at 220 C]  [Purpose: For use in Flow Adsorption Microcalorimetry research]</t>
+  </si>
+  <si>
+    <t>synthetic aluminum hydroxide</t>
+  </si>
+  <si>
+    <t>[Sample Name: 151101-NL13-WA]  [Sample Type: Individual Sample&gt;Culture]  [Material: Liquid&gt;aqueous]  [Classification: Microbiology]  [Field Name: Water]  [Collection Method: Manual]  [Size: 1 L]  [Purpose: Microbial communities analysis]  [Physiographic Feature: Channel]  [Name Of Physiographic Feature: Upper Sangamon river basin]  [Country: United States]  [State/Province: Illinois]  [County: Champaign]</t>
+  </si>
+  <si>
+    <t>water with microbial community</t>
+  </si>
+  <si>
+    <t>stream water</t>
+  </si>
+  <si>
+    <t>[Sample Name: 13626 N1-T1-1]  [Sample Type: Grab]  [Parent: IEGRL000N 13626 N1-T1-1]  [Material: Sediment]  [Field Name: bedload]  [Physiographic Feature: stream (deglaciated)]  [Name Of Physiographic Feature: Nerumaq]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sample Name: 13626 N1-T1-1]  [Sample Type: Grab]  [Parent:  IEGRL000N 13626 N1-T1-1]  [Material: Liquid&gt;aqueous]  [Classification: Not Provided]  [Field Name: surface water]  [Physiographic Feature: stream (deglaciated)]  [Name Of Physiographic Feature: Nerumaq] </t>
+  </si>
+  <si>
+    <t>[Sample Name: ODM_DR03]  [Sample Type: Dredge]  [Description: serpentinized peridotites, hydrothermal breccias, felsic veins]  [Collection Method: dredge]  [Size: 115 kg]  [Physiographic Feature: mid-ocean ridge]  [Name Of Physiographic Feature: Mid-Atlantic Ridge]  [Field Program/Cruise: ODEMAR]  [Platform Name: Pourquoi Pas]</t>
+  </si>
+  <si>
+    <t>core section</t>
+  </si>
+  <si>
+    <t>[Sample Name: BARB3-615.28]  [Sample Type: Core]  [Material: Rock]  [Classification: Sedimentary]  [Field Name: Chert]  [Description: B/W chert]  [Collection Method: Coring]  [Size: 0.21 m]  [Geological Age: Paleoarchaean]  [Geological Unit: Kromberg Formation]  [Locality: Buck Reef Chert, BARB3]  [Locality Description: Barberton Greenstone Belt]  [Country: South Africa]  [City: Granville Grove 720JT]  [Current Archive: University of Johannesburg (UJ)]  [Depth in Core (min): 615.07 m]  [Depth in Core (max): 615.28 m]</t>
+  </si>
+  <si>
+    <t>borehole cuttings</t>
+  </si>
+  <si>
+    <t>[Sample Name: 50223200260000 Alcor1]  [Other Name(s): 2610-2640 ft MD]  [Sample Type: Cuttings]  [Material: Rock]  [Classification: Sedimentary]  [Description: Dry Cuttings, Box 1 of 8]  [Collection Method: Coring]  [Geological Age: Brookian]  [Geological Unit: Mikkelson Tongue of Canning Formation]  [Purpose: Dry Cuttings]  [Elevation Start: 57 meters]  [State/Province: AK]  [Depth (min): 2610 MD Feet]  [Depth (max): 2640 MD Feet]</t>
+  </si>
+  <si>
+    <t>[Sample Name: CS-4: 80-90]  [Sample Type: Cuttings]  [Material: Rock]  [Field Name: basalt, sand]  [Collection Method: Shaker table]  [Collection Method Description: Cutting sample collected from drill rig shaker table]  [Geological Age: Plio-Quaternary]  [Comment: Thermal-gradient borehole]  [Elevation Start: 1404 meters]  [Physiographic Feature: Basin &amp; Range desert basin]  [Name Of Physiographic Feature: Sevier Desert]  [Location Description: Crater Bench]  [Locality: TG Well CS-4]  [Country: United States]  [State/Province: Utah]  [Platform Type: truck-mounted drill rig]</t>
+  </si>
+  <si>
+    <t>cuttings</t>
+  </si>
+  <si>
+    <t>rock powder</t>
+  </si>
+  <si>
+    <t>[Sample Name: MB1601.373.9-p&lt;2.85]  [Sample Type: Individual Sample&gt;Powder]  [Parent IGSN: BSU0004EX]  [Material: Rock]  [Classification: Igneous]  [Collection Method: mineral separation processing]  [Collection Method Description: Parent sample crushed, density separated, this is light fraction]</t>
+  </si>
+  <si>
+    <t>XRF bead</t>
+  </si>
+  <si>
+    <t>[Sample Name: GCPUD1355]  [Other Name(s): waypoint 120, 24IX12_3]  [Sample Type: Individual Sample&gt;Bead]  [Material: Rock]  [Classification: Igneous&gt;Volcanic&gt;Mafic]  [Field Name: basalt, CRB]  [Description: "less phyric Frenchman Springs"]  [Age (min): 15.9]  [Age (max): 16]  [Collection Method: XRF bead processing]  [Collection Method Description: parent sample split, crushed, binder added, pressed into bead for analysis]  [Geological Age: Miocene]  [Geological Unit: Frenchman Springs Member of Wanapum Formation of Columbia River Basalt Group]  [Comment: composition consistent with Ginkgo; parent sample not registered]  [Purpose: XRF]  [Physiographic Feature: draw into west fork off Sheep Canyon]  [Name Of Physiographic Feature: Beezley Hills]  [Location Description: poor exposure along E Rd NW]  [Locality Description: Little Soap Lake quad]  [Country: United States]  [State/Province: Washington]</t>
+  </si>
+  <si>
+    <t>[Sample Name: Lyn 08]  [Sample Type: Individual Sample&gt;Thin Section]  [Parent IGSN: BWH00002I]  [Material: Rock]  [Classification: Ore&gt;Sulfide]  [Field Name: Ore deposit]  [Collection Method: polished thin section preparation]  [Collection Method Description: Thin section billet trimmed from slab normal to core axis in parent sample]  [Purpose: Exploratory]  [Physiographic Feature: Metamorphic terrane]  [Name Of Physiographic Feature: Pembine-Wausau Terrane]  [Locality: Lynne Deposit]  [Country: United States]  [State/Province: Wisconsin]  [County: Oneida]  [City: Tripoli]  [Field Program/Cruise: Noranda Minerals]</t>
+  </si>
+  <si>
+    <t>[Sample Name: E151]  [Sample Type: Individual Sample&gt;Specimen]  [Material: Mineral]  [Field Name: Diamond]  [Locality: Ekati Mine]  [Country: Canada]</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Calcite</t>
+  </si>
+  <si>
+    <t>[Sample Name: USFS-11290-002]  [Sample Type: Individual Sample&gt;Specimen]  [Material: Mineral]  [Classification: Calcite]  [Field Name: Calcite Cave Spar]  [Geological Age: 35.69]  [Elevation Start: 2035 meters]  [Physiographic Feature: Cave]  [Country: United States]  [State/Province: NM]</t>
+  </si>
+  <si>
+    <t>[Sample Name: Sari15-04-24]  [Sample Type: Individual Sample&gt;Specimen]  [Parent IGSN: KAK000006]  [Material: Glass]  [Field Name: Melt inclusion]  [Collection Method: inspection of thin section]  [Collection Method Description: melt inclusions identified in parent thin section]  [Size: .07 mm]  [Purpose: Targeted for microanalysis]  [Physiographic Feature: Volcano]  [Name Of Physiographic Feature: Sarigan]  [Locality: Mariana Arc]  [Country: Northern Mariana Islands]  [Field Program/Cruise: 2004 MARGINS]  [Parents: KAK000006 SARI-15-04]  [Siblings: {MNB000001 Sari15-04-01, MNB000002 Sari15-04-03, MNB000003 Sari15-04-04, MNB000004 Sari15-04-07}]</t>
+  </si>
+  <si>
+    <t>zircon grain</t>
+  </si>
+  <si>
+    <t>[Sample Name: Kn 180-2- 27-72-2]  [Sample Type: Individual Sample]  [Parent IGSN: CHE00000Z]  [Material: Mineral]  [Classification: Zircon]  [Field Name: zircon]  [Description: zircon grain]  [Collection Method: mineral grains identified in polished thin section (parent sample) for U-Pb analysis]  [Size: .27 mm]  [Name Of Physiographic Feature: Mid Atlantic Ridge]  [Parents: CHE00000Z Kn 180-2- 27-72]  [Siblings: {CHE0000F0 Kn 180-2- 27-72-1, CHE0000F2 Kn 180-2- 27-72-3, CHE0000F3 Kn 180-2- 27-72-4, CHE0000F4 Kn 180-2- 27-72-5}]</t>
+  </si>
+  <si>
+    <t>biogenic mat</t>
+  </si>
+  <si>
+    <t>[Sample Name: J797-BM1-D6-14]  [Sample Type: Individual Sample]  [Material: Biology]  [Description: Cassette D Syringe 6. Sampling site: Smaller than previous clump of fluffy yellow iron mat in shimmering water near last site. Jason T=27C. Sensor readings for area: pH=3.15v; O2=1.51ml/L.]  [Collection Method: Sampler:Biology:Syringe]  [Collection Method Description: BioMat Cassette Syringe sampler]  [Name Of Physiographic Feature: Mariana:Snail]  [Location Description: Mkr 108 site]  [Field Program/Cruise: RR1413]  [Launch Type: ROV]  [Launch Platform Name: Jason II]</t>
+  </si>
+  <si>
+    <t>Sycamore</t>
+  </si>
+  <si>
+    <t>[Sample Name: FISH-31]  [Other Name(s): 1794]  [Material: Biology]  [Field Name: Plant]  [Description: plant. collected june 2005, Sycamore, New Harbour group, unwashed]  [Purpose: The distribution and uptake of isotopes into the biosphere]  [Country: United Kingdom]</t>
+  </si>
+  <si>
+    <t>Mussel</t>
+  </si>
+  <si>
+    <t>[Sample Name: 3989]  [Sample Type: Individual Sample]  [Material: Biology]  [Collection Method: Sampler:Biology:Net]  [Comment: Mussel]  [Physiographic Feature: Vent]  [Name Of Physiographic Feature: EPR:9N:BM141]  [Field Program/Cruise: AT11-09]  [Platform Type: Ship]  [Platform Name: Atlantis]  [Launch Type: HOV]  [Launch Platform Name: Alvin]</t>
+  </si>
+  <si>
+    <t>macrofossils</t>
+  </si>
+  <si>
+    <t>[Sample Name: Bybell-006141]  [Sample Type: Individual Sample]  [Material: Biology]  [Field Name: Macrofossils]  [Geological Age: Paleocene]  [Geological Unit: Aquia]  [Locality: Glymont, Potomac River]  [Locality Description: Not Provided]  [Country: United States]  [State/Province: Maryland]</t>
+  </si>
+  <si>
+    <t>ocean trawl</t>
+  </si>
+  <si>
+    <t>[Sample Name: Otter Trawl AA CRS 953]  [Sample Type: Trawl]  [Material: Biology]  [Collection Method: Trawling&gt;OtterTrawl]  [Purpose: Species identification]  [Elevation Start: -569 meters]  [Physiographic Feature: Continental shelf]  [Name Of Physiographic Feature: West Antarctic Peninsula, Southern Ocean]</t>
+  </si>
+  <si>
+    <t>Tree disk</t>
+  </si>
+  <si>
+    <t>[Sample Name: LL1205]  [Sample Type: Other]  [Material: Biology]  [Field Name: tree disk]  [Collection Method: Chain-saw]  [Collection Method Description: Collected from dead tree]  [Comment: Field Program: PdT14]  [Physiographic Feature: Plateau]  [Name Of Physiographic Feature: Tamarugal]</t>
+  </si>
+  <si>
+    <t>mussel shell</t>
+  </si>
+  <si>
+    <t>[Sample Name: H3R]  [Sample Type: Other]  [Material: Biology]  [Classification: Macrobiology]  [Description: mussel shell]  [Age (min): 100 years]  [Age (max): 120 years]  [Collection Method Description: walk the river bank, pick up shells]  [Size: 10 cm]  [Geological Age: Holocene]  [Geological Unit: surface]  [Comment: right valve of mussels shell]  [Locality: Munson Shoals / Mussel Shoals]  [Locality Description: Bend in the Brazos River, Texas]  [Country: United States]  [State/Province: Texas]</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>[Sample Name: L1-108]  [Sample Type: Other]  [Material: Biology]  [Classification: Macrobiology&gt;Coral]  [Field Name: Stylasteridae, Errina]  [Collection Method: Dredging; Manual]  [Collection Method Description: Coral was hand-drilled along skeleton]  [Purpose: Radiocarbon analysis]  [Elevation Start: -669 meters]  [Physiographic Feature: Upper continental slope]  [Name Of Physiographic Feature: Mertz Sill]  [Locality: Eastern Wilkes Land, Antarctica]</t>
+  </si>
+  <si>
+    <t>pulverized leaves</t>
+  </si>
+  <si>
+    <t>[Sample Name: ACSA 2059 6/9/11 Ground]  [Sample Type: Other]  [Parent IGSN: SSH000168]  [Material: Biology]  [Classification: Macrobiology]  [Field Name: Acer saccharum]  [Description: Upper Canopy Leaves (Dried and Ground)]  [Collection Method: Manual]  [Collection Method Description: Hand sampled after tree climbing, crushed split from parent sample]  [Physiographic Feature: Watershed]  [Name Of Physiographic Feature: Shale Hills Catchment]  [Country: United States]  [State/Province: Pennsylvania]</t>
+  </si>
+  <si>
+    <t>loss on ignition ash</t>
+  </si>
+  <si>
+    <t>[Sample Name: ANT14 LIT-4 D1 B2 L]  [Other Name(s): Drive 1, Bot 2-3cm]  [Sample Type: Individual Sample&gt;Powder]  [Parent IGSN: IELUJS015]  [Material: Biology]  [Classification: Macrobiology]  [Field Name: Peat]  [Description: Loss on ignition ash]  [Collection Method: Coring]  [Collection Method Description: Box Corer]  [Geological Age: Holocene]  [Comment: Sampled from parent section 9/2/14]  [Purpose: Loss On Ignition Analysis]  [Physiographic Feature: Island]  [Name Of Physiographic Feature: Litchfield Island]  [Location Description: North-facing peat bank]  [Locality: Palmer Station]  [Locality Description: 1.5km West of Palmer Station]  [Country: Antarctica]</t>
+  </si>
+  <si>
+    <t>peat core section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sample Name: ANT14 LIT-4 D1 B2]  [Sample Type: Core Section]  [Parent IGSN: IELUJD001]  [Material: Biology]  [Classification: Macrobiology]  [Field Name: Peat]  [Description: Moss peat core sample interval]  [Collection Method: Coring]  [Collection Method Description: Box Corer]  [Size: 0.9 cm]  [Geological Age: Holocene]  [Purpose: Paleoclimatology]  [Physiographic Feature: Island]  [Name Of Physiographic Feature: Litchfield Island]  [Location Description: North-facing peat bank]  [Locality: Palmer Station]  [Locality Description: 1.5km West of Palmer Station]  [Country: Antarctica] </t>
+  </si>
+  <si>
+    <t>[Sample Name: PREH150607-1A]  [Sample Type: Individual Sample]  [Material: Soil]  [Classification: Not Provided]  [Field Name: RB-BKR-11-5 IC-BKR-11-5 brown soil pH 4.3 Depth range 0-10 cm]  [Purpose: 10Be - local erosion rate]  [Physiographic Feature: Watershed]  [Name Of Physiographic Feature: Rio Blanco]  [Locality: El Yunque National Forest]  [Locality Description: ridge left side of Rio Blanco near outlet]  [Country: Puerto Rico]</t>
+  </si>
+  <si>
+    <t>soil core section</t>
+  </si>
+  <si>
+    <t>[Sample Name: BWE201406032C1020]  [Sample Type: Core Section]  [Parent IGSN: IEBWE0003]  [Material: Soil]  [Description: Day 223 core section from unheated control plot 2C of a deep soil warming experiment]  [Collection Method: Coring&gt;HandHeldCorer]  [Collection Method Description: Collected with a multi-stage corer 5 cm in diameter using a 10 kg hand-held slide-hammer]  [Purpose: Biogeochemistry, geochemistry and microbiology]  [Physiographic Feature: Mountain]  [Name Of Physiographic Feature: Sierra Nevada foothills]  [Location Description: Mixed conifer forest]  [Locality: Blodgett Forest Research Station, University of California]  [Depth in Core (min): 10 Centimeters Below Surface]  [Depth in Core (max): 20 Centimeters Below Surface]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Provenience (Recorded): SC 8-12]   [Level: 90-130]   [WT (0.01 gram increments): 2.96]   [Max Size (5mm increments, maximum surficial length): 40.0]   [Date C14: 8020±280 BP]     [Class: Mammalia]   [Size 1: Medium]   [Order: Carnivora]   [Size 2: Medium]   [Family: Canidae]   [Size 3: Small]   [Genus: Lycalopex]   [Element: Humerus,  Distal &amp; Shaft]   [Comments: much bigger specimen than preceding] </t>
+  </si>
+  <si>
+    <t>[Sex:   Female]  [Class:   Aves]  [Order:   Galliformes]  [Family:   Phasianidae]  [Genus:   Coturnix]  [Species:   Coturnix]  [Subspecies:   japonica]  [Common Name:   Japanese quail]  [Continent/Ocean:   North America]  [Country:   USA]  [State/Province:   MA]  [Kind:   Complete skeleton]  [Received from:   Concord Field Station]  [Bio. Remarks:   wing chord 110, bill 11; had 3 eggs; found dead in pen]  [Site Name:   Bird Farm]  [Location:   Berlin]  [Specimen Remarks:   Complete skeleton]</t>
+  </si>
+  <si>
+    <t>[Laetoli Loc 8. ]  [between tuffs 5 &amp; 7]  [seed] [Pliocene]  [Plantae]</t>
+  </si>
+  <si>
+    <t>[Loc. 16]  [Laetolil Beds, Upper Unit, top part of T8]  [leaf, dicot.] [Upper Pliocene] [Plantae]</t>
+  </si>
+  <si>
+    <t>[Oleisusu]  [Laetolil Beds, ?Lower Unit]  [wood] [Pliocene]  [Plantae]</t>
+  </si>
+  <si>
+    <t>necklace fragment</t>
+  </si>
+  <si>
+    <t>[Sample Name: VC-18-03]  [Sample Type: Individual Sample&gt;Specimen]  [Material: Rock]  [Classification: Sedimentary&gt;Carbonate]  [Field Name: ooid grainstone]    [Collection Method: Manual&gt;Hammer]    [Locality: Vermillion Creek Section, Sand Wash Basin, Green River Formation]  [Country: United States]  [State/Province: Colorado]   [Collection Start Date: 2018-06-06T04:00:00Z]   [Depth (min): 0.95 meters from base of section]  [Parent: IEEJT0050 GRF-VC]</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +3084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2936,13 +3119,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2998,6 +3190,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5127,7 +5322,7 @@
         <v>382</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="100.5" x14ac:dyDescent="0.25">
@@ -5164,7 +5359,7 @@
         <v>382</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -5503,7 +5698,7 @@
         <v>382</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>614</v>
@@ -5632,7 +5827,7 @@
         <v>382</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -5672,7 +5867,7 @@
         <v>382</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>614</v>
@@ -5683,7 +5878,7 @@
         <v>382</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>614</v>
@@ -5694,7 +5889,7 @@
         <v>382</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>614</v>
@@ -5705,7 +5900,7 @@
         <v>382</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>614</v>
@@ -5987,7 +6182,7 @@
         <v>382</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>614</v>
@@ -7771,7 +7966,7 @@
         <v>382</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -8634,7 +8829,7 @@
         <v>382</v>
       </c>
       <c r="G170" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>614</v>
@@ -8675,7 +8870,7 @@
         <v>382</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>614</v>
@@ -8863,7 +9058,7 @@
         <v>382</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>614</v>
@@ -8940,7 +9135,7 @@
         <v>382</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>614</v>
@@ -11814,283 +12009,548 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CA6472-78AF-47A6-B1C4-7E8E68C5F33F}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>823</v>
+      <c r="A1" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>822</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>855</v>
+      <c r="B65" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/vocabulary/SampleTypeCompilation.xlsx
+++ b/vocabulary/SampleTypeCompilation.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\iSamples\metadata\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46590782-9A26-45C8-8619-6C7D75E9B329}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB739AFE-F94E-46D3-A2A4-4960BD6028B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="360" windowWidth="16455" windowHeight="13605" firstSheet="2" activeTab="5" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
+    <workbookView xWindow="3045" yWindow="375" windowWidth="18945" windowHeight="13605" activeTab="3" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleTypes" sheetId="1" r:id="rId1"/>
     <sheet name="OtherTypes" sheetId="2" r:id="rId2"/>
-    <sheet name="Synthesis" sheetId="3" r:id="rId3"/>
-    <sheet name="sampledFeature" sheetId="6" r:id="rId4"/>
-    <sheet name="procedure" sheetId="7" r:id="rId5"/>
-    <sheet name="CardDescriptions" sheetId="8" r:id="rId6"/>
+    <sheet name="GBIF  oc.v_preparations summary" sheetId="9" r:id="rId3"/>
+    <sheet name="CETAF SampleTypes" sheetId="10" r:id="rId4"/>
+    <sheet name="Synthesis" sheetId="3" r:id="rId5"/>
+    <sheet name="sampledFeature" sheetId="6" r:id="rId6"/>
+    <sheet name="procedure" sheetId="7" r:id="rId7"/>
+    <sheet name="CardDescriptions" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SampleTypes!$A$1:$A$164</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="1172">
   <si>
     <t>Identical split(s) of an original sample submitted blindly to the laboratory to test reproducibility (bias) of results.  Should be related to a previous original specimen.</t>
   </si>
@@ -2981,12 +2983,765 @@
   <si>
     <t>[Sample Name: VC-18-03]  [Sample Type: Individual Sample&gt;Specimen]  [Material: Rock]  [Classification: Sedimentary&gt;Carbonate]  [Field Name: ooid grainstone]    [Collection Method: Manual&gt;Hammer]    [Locality: Vermillion Creek Section, Sand Wash Basin, Green River Formation]  [Country: United States]  [State/Province: Colorado]   [Collection Start Date: 2018-06-06T04:00:00Z]   [Depth (min): 0.95 meters from base of section]  [Parent: IEEJT0050 GRF-VC]</t>
   </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>skeletonized??</t>
+  </si>
+  <si>
+    <t>SEM, alcohol</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>residue pellet</t>
+  </si>
+  <si>
+    <t>preserved</t>
+  </si>
+  <si>
+    <t>polish</t>
+  </si>
+  <si>
+    <t>planting</t>
+  </si>
+  <si>
+    <t>pin, microvial</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>on plinth</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>mummification</t>
+  </si>
+  <si>
+    <t>mounted on slide,alcohol</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
+    <t>mounted on slide, SEM</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>mounted on slide, PVL</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>mounted on slide, glycerol</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>mounted on slide</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>mounted</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>molding</t>
+  </si>
+  <si>
+    <t>bird nest, egg</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>liquid preservation</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>herbarium sheet</t>
+  </si>
+  <si>
+    <t>bird nest</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>freeze, dried</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>human remains</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>formalin</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>fixation</t>
+  </si>
+  <si>
+    <t>Tree part</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>elution buffer</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>dry mounted</t>
+  </si>
+  <si>
+    <t>plant part</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>dried, SEM</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>dried, alcohol, SEM</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>dried</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>C&amp;S without KOH</t>
+  </si>
+  <si>
+    <t>Bird part</t>
+  </si>
+  <si>
+    <t>1.1.2.3</t>
+  </si>
+  <si>
+    <t>Brightened and colored</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>1.1.2.2</t>
+  </si>
+  <si>
+    <t>alcohol, SEM</t>
+  </si>
+  <si>
+    <t>animal part</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>alcohol, freeze</t>
+  </si>
+  <si>
+    <t>whole animal</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>alcohol, dried</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>biological specimen</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>acid treatment</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
+  </si>
+  <si>
+    <t>sample type</t>
+  </si>
+  <si>
+    <t>preservationMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obtain from </t>
+  </si>
+  <si>
+    <t>https://github.com/tdwg/mids/issues/14#issuecomment-763578403</t>
+  </si>
+  <si>
+    <t>GBIF data in gbif_export_20200611_v2</t>
+  </si>
+  <si>
+    <t>SEM preparation</t>
+  </si>
+  <si>
+    <t>https://www.gu.se/en/core-facilities/sem-sample-preparation-techniques</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>basisOfRecord</t>
+  </si>
+  <si>
+    <t>preparations</t>
+  </si>
+  <si>
+    <t>sampled feature</t>
+  </si>
+  <si>
+    <t>specimenType</t>
+  </si>
+  <si>
+    <t>https://github.com/tdwg/mids/issues/5</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1qUMeCcC2VsF487PMNODE1bA3VsCTZH2ydNQ0_LWLnbU/edit#gid=234199043</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>PhysicalObject</t>
+  </si>
+  <si>
+    <t>FossilSpecimen</t>
+  </si>
+  <si>
+    <t>coal ball</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>CETAF Digitization Working Group, 7th December 2020</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Macrofissil</t>
+  </si>
+  <si>
+    <t>https://cetafdigitization.biowikifarm.net/cdig/</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>LivingSpecimen</t>
+  </si>
+  <si>
+    <t>cytological specimen</t>
+  </si>
+  <si>
+    <t>animal or plant cell</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>living organism</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>MaterialSample</t>
+  </si>
+  <si>
+    <t>bark</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Beak</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>whatever made the mold for the casting</t>
+  </si>
+  <si>
+    <t>guessing this means a cast of something was made in the field</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Claw</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>core sample</t>
+  </si>
+  <si>
+    <t>what was cored? A tree, or the earth?</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DNA sample</t>
+  </si>
+  <si>
+    <t>biologic specimen</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ethnobotanical object</t>
+  </si>
+  <si>
+    <t>don't know if this is whole or part</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>frozen tissue</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>fruit/cone</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Fur or hair</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Microscope slide</t>
+  </si>
+  <si>
+    <t>microscope slide</t>
+  </si>
+  <si>
+    <t>whats on the slide?</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Peel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peel </t>
+  </si>
+  <si>
+    <t>need detail on what this is</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Pharmaceutical</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Pollen</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SEM stub</t>
+  </si>
+  <si>
+    <t>whats on the stub?</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>what is the material for shell, bone, etc? not really organic</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>fungus</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Tooth</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>PreservedSpecimen</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HerbariumSheet</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>HerbariumSheet:dormant</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>HerbariumSheet:flower</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HerbariumSheet:fruit</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>HerbariumSheet:seedling</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>HerbariumSheet:vegetative</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>LiquidPreserved</t>
+  </si>
+  <si>
+    <t>container with liquid</t>
+  </si>
+  <si>
+    <t>assume preserved item is some kind of organism</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LiquidPreserved:alcohol</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>LiquidPreserved:formalin</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>LiquidPreserved:glycerin</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Pinned</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Silica gel</t>
+  </si>
+  <si>
+    <t>whole or part?</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Stuffed</t>
+  </si>
+  <si>
+    <t>UD</t>
+  </si>
+  <si>
+    <t>Unmounted dried specimen</t>
+  </si>
+  <si>
+    <t>Related resources</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>StillImage</t>
+  </si>
+  <si>
+    <t>HumanObservation</t>
+  </si>
+  <si>
+    <t>drawing in b&amp;w</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>drawing in color</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>drawing made with aid of microscope</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Spore print</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>MachineObservation</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Photograph:b&amp;w</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Photograph:color</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Photograph:lightMicroscope</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Photograph:slide</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SEM micrograph</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Transmission electron micrograph</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3069,6 +3824,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3129,12 +3945,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3195,11 +4015,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{AA359D7C-8588-48E7-BA79-2FB9E1F0F3C9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{1E5144E3-89D2-4FFB-A691-11424BD1BBF2}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{A51B88D9-E0D5-4AE8-B7F7-35E1FFE7F975}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9430,6 +10300,2048 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3C2B4E-2650-4C5F-8296-B9D8AAB75C6B}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" style="22" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="16.85546875" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="22">
+        <v>18384</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="22">
+        <v>1663</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B3" s="22">
+        <v>74</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G3" s="22">
+        <v>8947</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="22">
+        <v>11058</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="22">
+        <v>12</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="B5" s="22">
+        <v>7</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="G5" s="22">
+        <v>2742</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>994</v>
+      </c>
+      <c r="G6" s="22">
+        <v>58776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>993</v>
+      </c>
+      <c r="B7" s="22">
+        <v>18</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>992</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>991</v>
+      </c>
+      <c r="G7" s="22">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>990</v>
+      </c>
+      <c r="B8" s="22">
+        <v>196</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>989</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>988</v>
+      </c>
+      <c r="G8" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="B9" s="22">
+        <v>3</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>985</v>
+      </c>
+      <c r="G9" s="22">
+        <v>86835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="B10" s="22">
+        <v>10596</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="G10" s="22">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1011812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>977</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>976</v>
+      </c>
+      <c r="G12" s="22">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="B13" s="22">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="G13" s="22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>973</v>
+      </c>
+      <c r="B14" s="22">
+        <v>42</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>971</v>
+      </c>
+      <c r="G14" s="22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="B15" s="22">
+        <v>5</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>969</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>968</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="B16" s="22">
+        <v>6</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="G16" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="B17" s="22">
+        <v>581</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>962</v>
+      </c>
+      <c r="G17" s="22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="B18" s="22">
+        <v>8</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="G18" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="B19" s="22">
+        <v>164</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="G19" s="22">
+        <v>11473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="B20" s="22">
+        <v>6855</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>954</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="G20" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>952</v>
+      </c>
+      <c r="B21" s="22">
+        <v>12</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="B22" s="22">
+        <v>4427</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="G22" s="22">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="B23" s="22">
+        <v>6446</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="G23" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="B24" s="22">
+        <v>151</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>942</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="G24" s="22">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="B25" s="22">
+        <v>42</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="22">
+        <v>5954513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>938</v>
+      </c>
+      <c r="B26" s="22">
+        <v>4</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="G26" s="22">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>935</v>
+      </c>
+      <c r="B27" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="B28" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="B29" s="22">
+        <v>29115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="B30" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="B31" s="22">
+        <v>322683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="B32" s="22">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="B33" s="22">
+        <v>26041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="B34" s="22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="B35" s="22">
+        <v>16660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="B36" s="22">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="B37" s="22">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B38" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="B39" s="22">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="B40" s="22">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="B41" s="22">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" location="issuecomment-763578403" xr:uid="{8F8F5FCB-1821-489F-A6F2-4589D3D11E42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251F4142-FF2C-45DC-9BB3-06F399484576}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="24" style="31" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="20" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="31"/>
+    <col min="7" max="7" width="30.7109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="31"/>
+    <col min="10" max="10" width="26" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="34" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="36" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="34" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="38" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="35" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>982</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>962</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="35" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="35" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="35" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="35" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+    </row>
+    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="32" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+    </row>
+    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="32" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>979</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+    </row>
+    <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+    </row>
+    <row r="39" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="32" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="G46" s="41"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+    </row>
+    <row r="48" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="40" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="40" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="40" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="40" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="40" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="40" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>820</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:I4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{A55B9E54-C501-41F9-A237-91D2116DB6F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7462EFFD-5DEC-48C8-895D-422909D578AE}">
   <dimension ref="A1:J200"/>
   <sheetViews>
@@ -10475,7 +13387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E369966-9B61-468E-AAF8-630DA80EB960}">
   <dimension ref="A1:I43"/>
   <sheetViews>
@@ -11327,7 +14239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D4AD3E-BF3E-4556-BE4E-E5EAD7F5CF3E}">
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -12007,11 +14919,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CA6472-78AF-47A6-B1C4-7E8E68C5F33F}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>

--- a/vocabulary/SampleTypeCompilation.xlsx
+++ b/vocabulary/SampleTypeCompilation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\iSamples\metadata\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB739AFE-F94E-46D3-A2A4-4960BD6028B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B3F45E-BA5C-4330-9E7A-031F60FE6C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="375" windowWidth="18945" windowHeight="13605" activeTab="3" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
+    <workbookView xWindow="1620" yWindow="705" windowWidth="24780" windowHeight="13485" activeTab="3" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleTypes" sheetId="1" r:id="rId1"/>

--- a/vocabulary/SampleTypeCompilation.xlsx
+++ b/vocabulary/SampleTypeCompilation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\iSamples\metadata\vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B3F45E-BA5C-4330-9E7A-031F60FE6C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14D03D-0805-4BCE-B361-7AA5D408D2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="705" windowWidth="24780" windowHeight="13485" activeTab="3" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
+    <workbookView xWindow="180" yWindow="1335" windowWidth="26550" windowHeight="13485" firstSheet="1" activeTab="7" xr2:uid="{D08A62D1-934B-493D-9C48-9223CA83C33D}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleTypes" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="CardDescriptions" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CardDescriptions!$A$1:$A$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SampleTypes!$A$1:$A$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2933,9 +2934,6 @@
     <t>coral</t>
   </si>
   <si>
-    <t>[Sample Name: L1-108]  [Sample Type: Other]  [Material: Biology]  [Classification: Macrobiology&gt;Coral]  [Field Name: Stylasteridae, Errina]  [Collection Method: Dredging; Manual]  [Collection Method Description: Coral was hand-drilled along skeleton]  [Purpose: Radiocarbon analysis]  [Elevation Start: -669 meters]  [Physiographic Feature: Upper continental slope]  [Name Of Physiographic Feature: Mertz Sill]  [Locality: Eastern Wilkes Land, Antarctica]</t>
-  </si>
-  <si>
     <t>pulverized leaves</t>
   </si>
   <si>
@@ -3735,6 +3733,9 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>[Sample Name: L1-108]  [Sample Type: Other]  [Material: Biology]  [Classification: Macrobiology&gt;Coral]  [Field Name: Stylasteridae, Errina] (coral is living species, not a fossil) [Collection Method: Dredging; Manual]  [Collection Method Description: Coral was hand-drilled along skeleton]  [Purpose: Radiocarbon analysis]  [Elevation Start: -669 meters]  [Physiographic Feature: Upper continental slope]  [Name Of Physiographic Feature: Mertz Sill]  [Locality: Eastern Wilkes Land, Antarctica]</t>
   </si>
 </sst>
 </file>
@@ -10317,21 +10318,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10342,7 +10343,7 @@
         <v>18384</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>253</v>
@@ -10351,68 +10352,68 @@
         <v>1663</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>1009</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B3" s="22">
         <v>74</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G3" s="22">
         <v>8947</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="22">
         <v>11058</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G4" s="22">
         <v>12</v>
       </c>
       <c r="K4" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L4" t="s">
         <v>1012</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B5" s="22">
         <v>7</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G5" s="22">
         <v>2742</v>
@@ -10422,16 +10423,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B6" s="22">
         <v>2</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G6" s="22">
         <v>58776</v>
@@ -10439,16 +10440,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B7" s="22">
         <v>18</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G7" s="22">
         <v>552</v>
@@ -10456,16 +10457,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B8" s="22">
         <v>196</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G8" s="22">
         <v>4</v>
@@ -10473,16 +10474,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B9" s="22">
         <v>3</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G9" s="22">
         <v>86835</v>
@@ -10490,16 +10491,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B10" s="22">
         <v>10596</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G10" s="22">
         <v>168</v>
@@ -10507,16 +10508,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G11" s="22">
         <v>1011812</v>
@@ -10524,16 +10525,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B12" s="22">
         <v>1</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G12" s="22">
         <v>3310</v>
@@ -10541,13 +10542,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B13" s="22">
         <v>9</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>477</v>
@@ -10558,16 +10559,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B14" s="22">
         <v>42</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G14" s="22">
         <v>52</v>
@@ -10575,16 +10576,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B15" s="22">
         <v>5</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G15" s="22">
         <v>1214</v>
@@ -10592,16 +10593,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B16" s="22">
         <v>6</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G16" s="22">
         <v>2</v>
@@ -10609,16 +10610,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B17" s="22">
         <v>581</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G17" s="22">
         <v>87</v>
@@ -10626,16 +10627,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B18" s="22">
         <v>8</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G18" s="22">
         <v>13</v>
@@ -10643,16 +10644,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B19" s="22">
         <v>164</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G19" s="22">
         <v>11473</v>
@@ -10660,16 +10661,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B20" s="22">
         <v>6855</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G20" s="22">
         <v>19</v>
@@ -10677,16 +10678,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B21" s="22">
         <v>12</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G21" s="22">
         <v>1</v>
@@ -10694,16 +10695,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B22" s="22">
         <v>4427</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G22" s="22">
         <v>6647</v>
@@ -10711,16 +10712,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B23" s="22">
         <v>6446</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G23" s="22">
         <v>21</v>
@@ -10728,16 +10729,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B24" s="22">
         <v>151</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G24" s="22">
         <v>870</v>
@@ -10745,13 +10746,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B25" s="22">
         <v>42</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>255</v>
@@ -10762,16 +10763,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B26" s="22">
         <v>4</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G26" s="22">
         <v>4588</v>
@@ -10779,7 +10780,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B27" s="22">
         <v>4</v>
@@ -10787,7 +10788,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B28" s="22">
         <v>2</v>
@@ -10795,7 +10796,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B29" s="22">
         <v>29115</v>
@@ -10803,7 +10804,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B30" s="22">
         <v>3</v>
@@ -10811,7 +10812,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B31" s="22">
         <v>322683</v>
@@ -10819,7 +10820,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B32" s="22">
         <v>155</v>
@@ -10827,7 +10828,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B33" s="22">
         <v>26041</v>
@@ -10835,7 +10836,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B34" s="22">
         <v>63</v>
@@ -10843,7 +10844,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B35" s="22">
         <v>16660</v>
@@ -10851,7 +10852,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B36" s="22">
         <v>1156</v>
@@ -10859,7 +10860,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B37" s="22">
         <v>223</v>
@@ -10867,7 +10868,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B38" s="22">
         <v>24</v>
@@ -10875,7 +10876,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B39" s="22">
         <v>863</v>
@@ -10883,7 +10884,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B40" s="22">
         <v>2656</v>
@@ -10891,7 +10892,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B41" s="22">
         <v>600</v>
@@ -10912,7 +10913,7 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
@@ -10935,22 +10936,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1016</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>1017</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>1018</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>1019</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>1020</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>1021</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>159</v>
@@ -10962,21 +10963,21 @@
         <v>164</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>1023</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>1024</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>1025</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1026</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -10984,76 +10985,76 @@
       <c r="H2" s="33"/>
       <c r="I2" s="43"/>
       <c r="J2" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>1028</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>1029</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>1030</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>1031</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="35" t="s">
         <v>109</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="43"/>
       <c r="J3" s="36" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1034</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1035</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="35" t="s">
         <v>109</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="43"/>
       <c r="J4" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>1037</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="35" t="s">
         <v>1038</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="35" t="s">
         <v>1039</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>1040</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>526</v>
@@ -11067,19 +11068,19 @@
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1041</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="35" t="s">
         <v>1042</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>1043</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>526</v>
@@ -11093,19 +11094,19 @@
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>1044</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="32" t="s">
         <v>1045</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="35" t="s">
         <v>1046</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>1047</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>528</v>
@@ -11119,19 +11120,19 @@
     </row>
     <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>1048</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="35" t="s">
         <v>1049</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>1050</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>528</v>
@@ -11145,23 +11146,23 @@
     </row>
     <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>1051</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D9" s="37" t="s">
+      <c r="E9" s="35" t="s">
         <v>1052</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>1053</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="38" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -11169,19 +11170,19 @@
     </row>
     <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>1055</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="35" t="s">
         <v>1056</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>1057</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>528</v>
@@ -11195,16 +11196,16 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>1058</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>1059</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="35" t="s">
@@ -11212,26 +11213,26 @@
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>1061</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="E12" s="35" t="s">
         <v>1062</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>1063</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>528</v>
@@ -11245,19 +11246,19 @@
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>1064</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>1065</v>
-      </c>
       <c r="E13" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>526</v>
@@ -11266,26 +11267,26 @@
         <v>257</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>1067</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>1068</v>
-      </c>
       <c r="E14" s="35" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>528</v>
@@ -11299,19 +11300,19 @@
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>1069</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>1070</v>
-      </c>
       <c r="E15" s="35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>528</v>
@@ -11325,19 +11326,19 @@
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>1071</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>1072</v>
-      </c>
       <c r="E16" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>528</v>
@@ -11351,19 +11352,19 @@
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>1073</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>1074</v>
-      </c>
       <c r="E17" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>528</v>
@@ -11377,64 +11378,64 @@
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>1075</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>1076</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>1079</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>1080</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>1083</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>1084</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="35" t="s">
@@ -11449,19 +11450,19 @@
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>1085</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>1086</v>
-      </c>
       <c r="E21" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>528</v>
@@ -11475,19 +11476,19 @@
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D22" s="32" t="s">
+      <c r="E22" s="35" t="s">
         <v>1088</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>1089</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>528</v>
@@ -11501,19 +11502,19 @@
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>367</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>528</v>
@@ -11527,43 +11528,43 @@
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>1091</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>1092</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="35" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>327</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>528</v>
@@ -11572,26 +11573,26 @@
         <v>257</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>1096</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1097</v>
-      </c>
       <c r="E26" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>528</v>
@@ -11605,19 +11606,19 @@
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>1098</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1099</v>
-      </c>
       <c r="E27" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>528</v>
@@ -11631,19 +11632,19 @@
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>1100</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D28" s="32" t="s">
+      <c r="E28" s="35" t="s">
         <v>1101</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>1102</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>528</v>
@@ -11657,19 +11658,19 @@
     </row>
     <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>1103</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1104</v>
-      </c>
       <c r="E29" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>528</v>
@@ -11678,26 +11679,26 @@
         <v>257</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>366</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>528</v>
@@ -11711,48 +11712,48 @@
     </row>
     <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>1106</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C31" s="32" t="s">
+      <c r="D31" s="37" t="s">
         <v>1107</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>1108</v>
-      </c>
       <c r="E31" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="39" t="s">
         <v>257</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I31" s="33"/>
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>1109</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>1110</v>
-      </c>
       <c r="E32" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>257</v>
@@ -11763,22 +11764,22 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>1111</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>1112</v>
-      </c>
       <c r="E33" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>257</v>
@@ -11789,22 +11790,22 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>1113</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>1114</v>
-      </c>
       <c r="E34" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>257</v>
@@ -11815,22 +11816,22 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>1115</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>1116</v>
-      </c>
       <c r="E35" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>257</v>
@@ -11841,22 +11842,22 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>1117</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>1118</v>
-      </c>
       <c r="E36" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>257</v>
@@ -11867,22 +11868,22 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>1119</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>1120</v>
-      </c>
       <c r="E37" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>257</v>
@@ -11893,131 +11894,131 @@
     </row>
     <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>1121</v>
       </c>
-      <c r="B38" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D38" s="32" t="s">
+      <c r="E38" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F38" s="35" t="s">
         <v>1122</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>1123</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>257</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>1125</v>
       </c>
-      <c r="B39" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>1126</v>
-      </c>
       <c r="E39" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>257</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>1127</v>
       </c>
-      <c r="B40" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>1128</v>
-      </c>
       <c r="E40" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>257</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>1129</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>1130</v>
-      </c>
       <c r="E41" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>257</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>1131</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>1132</v>
-      </c>
       <c r="E42" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>526</v>
@@ -12031,19 +12032,19 @@
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D43" s="37" t="s">
         <v>1133</v>
       </c>
-      <c r="B43" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>1134</v>
-      </c>
       <c r="E43" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>526</v>
@@ -12052,26 +12053,26 @@
         <v>257</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>1136</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>1137</v>
-      </c>
       <c r="E44" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>526</v>
@@ -12080,26 +12081,26 @@
         <v>257</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>1138</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>1139</v>
-      </c>
       <c r="E45" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>526</v>
@@ -12108,7 +12109,7 @@
         <v>257</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I45" s="33"/>
       <c r="J45" s="33"/>
@@ -12127,7 +12128,7 @@
     </row>
     <row r="48" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -12135,195 +12136,195 @@
     </row>
     <row r="49" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A49" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>1141</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="C49" s="40" t="s">
         <v>1142</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="D49" s="40" t="s">
         <v>1143</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="40" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D50" s="40" t="s">
         <v>1145</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D51" s="40" t="s">
         <v>1147</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>1149</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D53" s="40" t="s">
         <v>1151</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C54" s="40" t="s">
         <v>1153</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C54" s="40" t="s">
+      <c r="D54" s="40" t="s">
         <v>1154</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="40" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D55" s="40" t="s">
         <v>1156</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D56" s="40" t="s">
         <v>1158</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="40" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D57" s="40" t="s">
         <v>1160</v>
-      </c>
-      <c r="B57" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="40" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D58" s="40" t="s">
         <v>1162</v>
-      </c>
-      <c r="B58" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="40" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D59" s="40" t="s">
         <v>1164</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="40" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D60" s="40" t="s">
         <v>1166</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D61" s="40" t="s">
         <v>1168</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="40" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>1170</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>1171</v>
-      </c>
       <c r="C62" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D62" s="40" t="s">
         <v>820</v>
@@ -14921,10 +14922,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CA6472-78AF-47A6-B1C4-7E8E68C5F33F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14941,7 +14943,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>822</v>
       </c>
@@ -14949,15 +14951,15 @@
         <v>781</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>823</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>824</v>
       </c>
@@ -14965,39 +14967,39 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>825</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>826</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>827</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>828</v>
       </c>
@@ -15013,7 +15015,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>830</v>
       </c>
@@ -15021,15 +15023,15 @@
         <v>785</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>831</v>
       </c>
@@ -15037,7 +15039,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>832</v>
       </c>
@@ -15045,7 +15047,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>833</v>
       </c>
@@ -15053,7 +15055,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>834</v>
       </c>
@@ -15061,7 +15063,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>835</v>
       </c>
@@ -15069,7 +15071,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>836</v>
       </c>
@@ -15077,7 +15079,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>838</v>
       </c>
@@ -15085,7 +15087,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>839</v>
       </c>
@@ -15093,7 +15095,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>841</v>
       </c>
@@ -15101,7 +15103,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>840</v>
       </c>
@@ -15109,7 +15111,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>842</v>
       </c>
@@ -15117,7 +15119,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>843</v>
       </c>
@@ -15125,7 +15127,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>844</v>
       </c>
@@ -15133,7 +15135,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>845</v>
       </c>
@@ -15149,7 +15151,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>847</v>
       </c>
@@ -15157,7 +15159,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>848</v>
       </c>
@@ -15165,7 +15167,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>849</v>
       </c>
@@ -15173,7 +15175,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>850</v>
       </c>
@@ -15181,7 +15183,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>851</v>
       </c>
@@ -15189,7 +15191,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>853</v>
       </c>
@@ -15197,7 +15199,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>855</v>
       </c>
@@ -15205,15 +15207,15 @@
         <v>854</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>856</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>858</v>
       </c>
@@ -15221,7 +15223,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>859</v>
       </c>
@@ -15229,7 +15231,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>861</v>
       </c>
@@ -15237,7 +15239,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>864</v>
       </c>
@@ -15245,7 +15247,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>866</v>
       </c>
@@ -15253,7 +15255,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>867</v>
       </c>
@@ -15261,7 +15263,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>493</v>
       </c>
@@ -15269,7 +15271,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>457</v>
       </c>
@@ -15277,7 +15279,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>871</v>
       </c>
@@ -15285,7 +15287,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>873</v>
       </c>
@@ -15293,7 +15295,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>876</v>
       </c>
@@ -15301,7 +15303,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>877</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>879</v>
       </c>
@@ -15325,7 +15327,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>883</v>
       </c>
@@ -15333,7 +15335,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>884</v>
       </c>
@@ -15341,7 +15343,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>81</v>
       </c>
@@ -15349,7 +15351,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>887</v>
       </c>
@@ -15357,7 +15359,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>889</v>
       </c>
@@ -15365,7 +15367,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>891</v>
       </c>
@@ -15373,7 +15375,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>893</v>
       </c>
@@ -15381,7 +15383,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>895</v>
       </c>
@@ -15389,7 +15391,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>897</v>
       </c>
@@ -15397,7 +15399,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>899</v>
       </c>
@@ -15405,7 +15407,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>901</v>
       </c>
@@ -15413,55 +15415,64 @@
         <v>902</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>903</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="B63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>839</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>913</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A66" xr:uid="{779F90AE-CD66-4103-9D7F-59968D0E339A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="coral thin section"/>
+        <filter val="flint smoothing stone"/>
+        <filter val="polished thin section"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
